--- a/va_facility_data_2025-02-20/Clare VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Clare%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Clare VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Clare%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R6985ec05f0ed47e3bb7b777e8a0286c5"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R95c876df5fba4bfea00f618bc4a8661a"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R66405b08d0054394a505cd2a52c61fc4"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R73f064c8ac5d427a88ec745ddbb26a50"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R44a0000241714221a40088114e0c33e4"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R3ccd47eb95564b58b10bfda1068cfaa6"/>
   </x:sheets>
 </x:workbook>
 </file>
